--- a/nop-biz/src/test/resources/_vfs/nop/test/imp/template4.test.xlsx
+++ b/nop-biz/src/test/resources/_vfs/nop/test/imp/template4.test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1B96A-BAA8-4909-BDE9-1F752682FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262C464-9C26-4D06-B73F-E501C30405E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -122,11 +113,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000;[Red]#,##0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +135,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -501,10 +496,6 @@
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -530,6 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,19 +537,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,139 +832,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.2">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.8" thickBot="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.2">
-      <c r="A9" s="15">
+      <c r="F8" s="28"/>
+      <c r="G8" s="29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.2">
-      <c r="A10" s="15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -986,85 +983,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605C25C-FD10-4AAF-BCF1-7B74A215D498}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.2">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="29" t="s">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1084,38 +1081,38 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>333</v>
       </c>
     </row>
